--- a/cards/currency/currency.xlsx
+++ b/cards/currency/currency.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:K198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,35 +440,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>cur_ide</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>cur_code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>cur_labe</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>cur_symb</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cur_alph_code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cur_defa_numb_deci</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
@@ -477,4894 +497,7652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>4900fc2a-6503-4e67-8570-d7381af8c125</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>704</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Viet Nam Dong</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>VND</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>c1381f80-d7d3-4a83-94c2-44babf2bd697</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>705</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Slovenia Tolar</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>74221398-151f-4967-a0f9-523c123dfdbe</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>706</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Somali Shilling</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>SOS</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>50cee6c6-8e6a-4cde-a385-c51594aa62ef</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>710</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>South Africa RandS</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>ZAR</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>901c6c19-a493-4b35-a1bf-815f0e42dd0c</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>716</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Zimbabwe Dollar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>ZWD</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>6011f2e0-ed8b-4bfa-b38f-aba2ef356424</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>724</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Spanish PesetaS</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>ESP</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>73e48803-4056-4d9a-ba36-7e12b0ebf90b</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>736</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sudanese Dinar</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>SDD</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>ffbcfd07-cbbd-43ca-b67f-0c63643888d6</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>737</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sudan Airline Rate</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>SDA</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>59c084e1-7963-4192-9c08-3747c5ca06f7</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>740</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="D10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Surinam Guilde</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>SRG</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>3930fa33-a9a2-4493-8419-c21ba0492b84</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>748</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Swaziland Lilangeni</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>SZL</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>ad1d6e05-7da2-4fe3-ba78-832f2b2711de</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>752</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Swedish KroneS</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>SEK</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>7c44b99c-99c4-4f28-a001-102b05ece1de</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>756</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Swiss FrancS</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>CHF</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>3a22c1e9-5eb5-4957-8779-b836e12c9822</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>760</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Syrian Pound</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>SYP</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>06ad8d48-ccdc-4e4e-80c6-e424f392bdf5</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>762</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Tajik Ruble</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>TJS</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>28cb42dc-d221-49c6-9a66-57e9e4546412</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>764</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Thailand Baht</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>THB</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>f380e11c-6f02-4510-b9ce-84d2dc1dad1b</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>776</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Pa?anga</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>TOP</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>f19724a6-b0c0-4601-9d62-f8d4a52cc88b</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>780</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Trinidad and Tobago Dollar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>TTD</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>45bde93c-0e12-4b64-8d20-42364cda3475</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>784</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>U.A.E. Dirham</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>AED</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>74116daa-5c9d-4c60-b40e-c96ed434cdbf</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>788</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Tunisian Dinar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>TND</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>bd16bd40-5be9-4e3e-9844-61a2029eb985</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>792</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Turkish Lira</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>TRL</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>4c438a1f-7501-4725-a0a5-89bf9f07242e</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>795</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Turkmenistan Manat</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>TMM</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>8d7d6d4d-954c-466b-b70c-4637faba2071</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>800</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Uganda Shilling</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>UGX</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>6f266f17-de61-4c4a-a7c3-4a315cc72f14</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>807</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Macedonia Denar</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>MKD</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>527143c2-fbbe-4062-8db5-c20171dbdeea</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>810</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Russian Ruble</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>RUR</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>f048ae08-cede-4384-8102-cb6cfdc2622d</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>818</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Egyptian Pound</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>8d5e5f57-5557-427a-8b0d-c58b4c242240</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>826</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">Pound SterlingS </t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>5b70403c-b231-4d75-be95-b67d6667ca88</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>834</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Tanzanian Shilling</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>TZS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>97900f94-62f9-424f-acde-3f3782d4f5d8</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>840</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>U.S. Dollar</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>d812a1a8-2332-433f-9c92-54d78cf7fdd8</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>858</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Peso Uruguayo</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>UYU</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>0e5305ea-2724-4d76-9dc5-1abdc8178d01</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>860</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Uzbekistan Sum</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>UZS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>a0c26248-b7f8-464a-b128-f7a300df9674</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>862</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Venezuela Bolivar</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>VEB</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>8cfdcd5c-8625-470e-8b9b-007bbb21d890</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>882</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Samoa Tala</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>WST</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>7d880271-2cec-4010-804f-c1338c3bcadc</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>886</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Yemeni Rial</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>YER</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>a41f2776-9764-4838-9537-d0b7563128d1</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>891</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Yugoslavian New Dinar</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>YUM</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>e61b27cd-e25e-47d0-a644-c0c0a202fdde</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>894</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Zambian Kwacha</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>ZMK</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>1a82383a-0a77-4c88-952b-70b6d4667136</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>901</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>New Taiwan Dollar</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>TWD</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>072cd648-c45d-47bb-a2f5-b876d0ffeec6</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>950</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>CFA Franc BEAC</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>XAF</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>730782cf-2e1a-45f8-a8b8-b424a22fc843</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>951</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>E. Caribbean Dollar</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>XCD</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>3a3d71a6-5203-4a79-8f3b-3b7d6bffccbd</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>952</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>CFA Franc BCEAO</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>XOF</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>217fe868-5131-43d3-b91c-29abc9dfa1a0</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>953</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="D41" t="n">
         <v>40</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>CFP Franc</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>XPF</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>c9b52d5a-0ace-4068-8687-e36fcbc0da0d</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>954</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="D42" t="n">
         <v>41</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>European Currency Unit (E.C.U.)</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>XEU</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>54f3eb20-135d-4611-a773-7367254a7f76</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>974</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="D43" t="n">
         <v>42</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Belarussian Ruble</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>BYR</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>05a575d7-7f5b-4de0-b84e-f30388ca8bd6</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>975</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="D44" t="n">
         <v>43</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Lev</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>BGN</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>cfc59b53-25f0-4202-a701-7d0bb49eb978</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>976</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="D45" t="n">
         <v>44</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Franc Congolais</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>CDF</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>be35d814-b41d-4e76-a5ce-377b6fdff8f4</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>977</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="D46" t="n">
         <v>45</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Bosnian Convertible Mark</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>BAM</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>5756a7e1-2c44-4794-8c7e-97a64af5438c</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>978</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="D47" t="n">
         <v>46</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>756dd0e6-a47e-4967-b577-f8d3442a6b73</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>980</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="D48" t="n">
         <v>47</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Ukrainian Hryvnia</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>UAH</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>ab5a9300-6597-4f2b-9957-1a5d6b1ffabc</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>981</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="D49" t="n">
         <v>48</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Georgian Lari</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>GEL</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>4f12eefd-b3a2-4553-9adb-249fe41f36f2</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>985</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="D50" t="n">
         <v>49</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Polish New Zloty</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>PLN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>8b4b8c64-bb5b-454f-84dd-3e1f76a56b7c</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>986</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="D51" t="n">
         <v>50</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Brazilian Real</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>f4637a43-8451-4c33-985d-8a5432308ff6</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>009</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="D52" t="n">
         <v>51</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>MOROCCAN DIRHAMS</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>MAD</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>AFA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>13a3ad46-5e7e-4078-8d14-a45889fe348b</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>008</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="D53" t="n">
         <v>52</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Lek</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>489734e9-18ce-4c4a-ae18-44b03173131e</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>012</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="D54" t="n">
         <v>53</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Algerian Dinar</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>DZD</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>87c17f9d-2a9e-4344-b67a-cc8f24edd598</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>024</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="D55" t="n">
         <v>54</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>New Kwanza</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>AON</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>53e89c43-fd87-45e0-aec5-65477ca95aa5</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>031</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="D56" t="n">
         <v>55</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Azerbaijan Manat</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>AZM</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>bede49be-ce0d-4b87-a8be-ed35089a348a</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>032</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="D57" t="n">
         <v>56</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Argentine Peso</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>ARS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>77edc7ad-0e89-4a12-928f-d4959e02f44e</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>036</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="D58" t="n">
         <v>57</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Australian DollarS</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>c678b4c5-bc01-41d1-9d12-c2a4b81d17bf</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>040</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="D59" t="n">
         <v>58</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Austrian SchillingS</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>ATS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>c6a31218-db57-4347-ac7b-87c2dff3dea4</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>044</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="D60" t="n">
         <v>59</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Bahamian Dollar</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>BSD</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>d41f8ffe-bc51-471f-98be-4a19db761358</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>048</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="D61" t="n">
         <v>60</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Bahraini Dinar</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>BHD</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>74ca9ffe-7bc9-4596-84d9-20374ec6ed20</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>050</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="D62" t="n">
         <v>61</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>Taka</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>BDT</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>dd958e25-1d89-4cb9-b79a-6db0a54ea069</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>051</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="D63" t="n">
         <v>62</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Armenian Dram</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>AMD</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>91966aa5-4508-4c95-b3f3-9af195fcf9e5</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>052</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="D64" t="n">
         <v>63</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>Barbados Dollar</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>BBD</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>977696c7-1fe1-4091-86b6-83bf1173641b</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>056</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="D65" t="n">
         <v>64</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>Belgian FrancS</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>BEF</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>52a291fc-b363-4280-a962-2bfe90d7e2fb</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>060</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="D66" t="n">
         <v>65</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>Bermudian Dollar</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>BMD</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>298553b7-160a-4dbb-b06b-596307a499dd</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>068</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="D67" t="n">
         <v>66</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Boliviano</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>BOB</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>a80501b4-fa54-4cd5-af12-b5b6f0884ce9</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>070</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="D68" t="n">
         <v>67</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Bosnian Dinar</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>BAD</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>697bb8ea-d392-4e15-89f9-f1ed16e0520c</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>072</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="D69" t="n">
         <v>68</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Pula</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>BWP</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>61556e9d-a0cd-411a-86e6-e8208c42899e</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>084</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="D70" t="n">
         <v>69</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Belize Dollar</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>BZD</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>fde1d71c-26aa-43e9-aac1-9040d69083dd</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>090</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="D71" t="n">
         <v>70</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Solomon Is. Dollar</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>SBD</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>84ce221d-9872-4a7e-b2a7-9896dec092c9</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>096</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="D72" t="n">
         <v>71</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Brunei Dollar</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>BND</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>d6221b23-8d7e-4a99-a1eb-657e477b57da</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>104</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="D73" t="n">
         <v>72</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Myanmar Kyat</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>MMK</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>96c75f07-ff9b-43d7-af00-b51e26de339e</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>108</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="D74" t="n">
         <v>73</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Burundi Franc</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>BIF</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>675de16e-a088-4ee6-91bf-e6651bd58fb2</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>116</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="D75" t="n">
         <v>74</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Riel</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>KHR</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>5e9a1a9f-aedd-4b7d-b928-ade0de0caa5a</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="D76" t="n">
         <v>75</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Canadian DollarS</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>1003a66c-6f11-48ff-9c60-95456e5e4b07</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>132</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="D77" t="n">
         <v>76</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Cape Verde Escudo</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>CVE</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>029c4973-c85f-4808-8c42-d1fcb7ee515a</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>136</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="D78" t="n">
         <v>77</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Cayman Is. Dollar</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>KYD</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>1cd713c1-0124-4e21-99fd-df11bf8f84a2</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>144</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="D79" t="n">
         <v>78</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Sri Lanka Rupee</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>LKR</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>aa20fa61-4618-428f-9b03-bc783e6c46a8</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>152</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="D80" t="n">
         <v>79</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Chilean Peso</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>CLP</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>b9b374ca-94dd-4824-b1c7-9a1df97f16cf</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>156</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="D81" t="n">
         <v>80</v>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>Yuan Renminbi</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>f0ddce1e-b39e-4232-95fe-ff9e43456125</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>170</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="D82" t="n">
         <v>81</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Colombian Peso</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>COP</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>527fc8ee-50bf-4361-b27d-013c91bcd8df</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>174</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="D83" t="n">
         <v>82</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Comoro Franc</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>KMF</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>1f9bcf86-9cc1-4c43-9db1-476c080404b4</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>188</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="D84" t="n">
         <v>83</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Costa Rican Colon</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>CRC</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>a110bdbb-1dbf-42c6-9148-e4ce7f7382c3</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>191</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="D85" t="n">
         <v>84</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Croatian Kuna</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>HRK</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>8d2c5e1c-b143-42c6-935c-7770754d7f9b</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="D86" t="n">
         <v>85</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>Cuban Peso</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>CUP</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>859cd304-c816-477e-9ed1-8961f8ec6535</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>196</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="D87" t="n">
         <v>86</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Cyprus Pound</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>CYP</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>92a389df-2ecd-4536-babe-ab3cfaa8ccd0</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>203</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="D88" t="n">
         <v>87</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Czech Koruna</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>CZK</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>6bae764b-f9e8-48e3-86d0-1e89903152a4</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>208</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="D89" t="n">
         <v>88</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Danish KroneS</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>DKK</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>76afa2bc-1fbc-4c24-a059-0e5899f4c9bb</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>214</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="D90" t="n">
         <v>89</v>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Dominican Peso</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>DOP</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>63d95281-914f-4577-bb73-f60f125a6b01</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>222</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="D91" t="n">
         <v>90</v>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>El Salvador Colon</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>SVC</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>a3669c68-3d82-455f-a44d-571625001951</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>230</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="D92" t="n">
         <v>91</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Ethiopian Birr</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>ETB</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>f4a046ab-38ed-4820-aaad-aa5f4bcf4840</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>232</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="D93" t="n">
         <v>92</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Eritrean Nakfa</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>ERN</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>0bcf3abf-7abb-4844-96ce-370b0a996d19</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>233</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="D94" t="n">
         <v>93</v>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Estonia Kroon</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>EEK</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>c51d9f4a-cd0f-4ab6-a895-7c8e07891ae4</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>238</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="D95" t="n">
         <v>94</v>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Falkland Is. Pound</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>FKP</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>11e41f76-bd6d-49d1-b65d-542398ffbc99</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>242</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="D96" t="n">
         <v>95</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Fiji Dollar</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>FJD</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>5bf1b07c-e7f5-41c1-af48-0355d9f5081a</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>246</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="D97" t="n">
         <v>96</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>Finland MarkkaS</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>FIM</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>755f3473-1ce6-4c51-a002-872828853f2d</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="D98" t="n">
         <v>97</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>French FrancS</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>FRF</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>00046f97-73a8-4de8-a6dc-c30f3e535e6f</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>262</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="D99" t="n">
         <v>98</v>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Djibouti Franc</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>DJF</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>cfbc3393-b759-48c8-bc84-893d25165338</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>270</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="D100" t="n">
         <v>99</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Dalasi</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>GMD</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>270c27e7-9991-4dbf-ab4b-c1901bd5201e</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>280</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="D101" t="n">
         <v>100</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Deutsche MarkS</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t>DEM</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>4f0f8aa3-dc73-4e19-968f-80264cc9c53e</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>288</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="D102" t="n">
         <v>101</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>Ghana Cedi</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
         <is>
           <t>GHC</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>02ea4b80-132b-456b-9cfb-15bebcd5cb27</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>292</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="D103" t="n">
         <v>102</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>Gibraltar Pound</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
         <is>
           <t>GIP</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>99118ec7-d1ca-41f0-9e38-fecf2bd963d1</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>300</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="D104" t="n">
         <v>103</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Greece Drachma</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
         <is>
           <t>GRD</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>98e105f1-7b97-4c0c-ba28-534fa2543dc3</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>320</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="D105" t="n">
         <v>104</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>Guatemala Quetzal</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
         <is>
           <t>GTQ</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>a0784e34-41a5-42f1-9970-5498014455f5</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>324</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="D106" t="n">
         <v>105</v>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Guinea Franc</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
         <is>
           <t>GNF</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>e520b520-541d-47ef-bda8-9795861691f2</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>328</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="D107" t="n">
         <v>106</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Guyana Dollar</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
         <is>
           <t>GYD</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>4390d427-4f8e-4dd7-983b-916ce8dd312d</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>332</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="D108" t="n">
         <v>107</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Haiti Gourde</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
         <is>
           <t>HTG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>3ac2fc5b-560f-4b5f-b919-3b758827e31d</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>340</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="D109" t="n">
         <v>108</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>Honduras Lempira</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
         <is>
           <t>HNL</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>af3c087b-6f40-4956-86ba-b49eefb254d8</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>344</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="D110" t="n">
         <v>109</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>Hong Kong DollarS</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
         <is>
           <t>HKD</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>1a8f1ac6-b22c-46dd-85b9-2eb16151f611</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>348</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="D111" t="n">
         <v>110</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>Hungary Forint</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
         <is>
           <t>HUF</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>e1ca291e-66df-4803-a8cd-4639d881f948</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>352</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="D112" t="n">
         <v>111</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>Iceland Krona</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
         <is>
           <t>ISK</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>22504241-2ffc-411f-bd52-2c63c611614b</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>356</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="D113" t="n">
         <v>112</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>Indian Rupees</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>edcb2d2f-7bb1-4a0e-aeaa-0a54ef6df1e7</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>360</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="D114" t="n">
         <v>113</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>Rupiah</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
         <is>
           <t>IDR</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>c2a72ca8-3dce-4565-9ab2-d66f39597d12</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>364</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="D115" t="n">
         <v>114</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Iranian Rial</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
         <is>
           <t>IRR</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>08a389c7-e18f-46d9-936c-cf63cc59865f</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>365</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="D116" t="n">
         <v>115</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>Iranian Airline Rate</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
         <is>
           <t>IRA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>4827c729-c2a9-4657-bb67-acaf72deafc6</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>368</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="D117" t="n">
         <v>116</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Iraqi Dinar</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
         <is>
           <t>IQD</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>80ac2d2b-fb5a-40fb-b55c-e4ea83b641a4</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>372</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="D118" t="n">
         <v>117</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>Irish PoundS</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
         <is>
           <t>IEP</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>9eb0695c-dfa2-44c6-9a73-6072ac585c88</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>376</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="D119" t="n">
         <v>118</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>New Israeli Shekel</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
         <is>
           <t>ILS</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>e223a0be-5545-459b-ae01-84c497647ae7</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>380</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="D120" t="n">
         <v>119</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>Italian LiraS</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
         <is>
           <t>ITL</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>fb17055a-a0d3-4ef9-9207-8ec01279d2cc</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>388</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="D121" t="n">
         <v>120</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>Jamaican Dollar</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
         <is>
           <t>JMD</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>b4fdc7ae-b1b4-4e9f-a580-2ab98535b7fa</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>392</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="D122" t="n">
         <v>121</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>Japan YenS</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
         <is>
           <t>JPY</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>a687cbf4-4499-4477-9fcb-5b3d337f9e62</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>398</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="D123" t="n">
         <v>122</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>Tenge</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
         <is>
           <t>KZT</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>fec49c52-ebe1-464c-9e1a-ea7457ba8963</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>400</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="D124" t="n">
         <v>123</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>Jordanian Dinar</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
         <is>
           <t>JOD</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>0ff9646b-dd92-4c7d-b712-8498332d4a04</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>404</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="D125" t="n">
         <v>124</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>Kenyan Shilling</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
         <is>
           <t>KES</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>51cc3a62-d347-4232-bd8a-a8a6c7af8f2f</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>408</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="D126" t="n">
         <v>125</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>North Korean Won</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
         <is>
           <t>KPW</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>d02f2afd-eaa2-47fe-b58b-34509470187e</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>414</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="D127" t="n">
         <v>126</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>Kuwaiti Dinar</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
         <is>
           <t>KWD</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>b5cfe30d-2d9a-4f01-b5a8-1ea75bd22c24</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t>417</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="D128" t="n">
         <v>127</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>Kyrgyzstan Som</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
         <is>
           <t>KGS</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>e9d3bac0-56b3-4688-a0c4-e12c3d189e57</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t>418</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="D129" t="n">
         <v>128</v>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>Lao People?s Democratic Republic Kip</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
         <is>
           <t>LAK</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>e42299e2-815d-4260-8695-347b6ce6cb7f</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>422</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="D130" t="n">
         <v>129</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>Lebanese Pound</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
         <is>
           <t>LBP</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>5781201a-7615-4889-b2af-a0de7a72d113</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>428</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="D131" t="n">
         <v>130</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>Latvian Lats</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
         <is>
           <t>LVL</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>46cad79e-b984-4c3e-84b6-7d3ea4191eb9</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>430</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="D132" t="n">
         <v>131</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>Liberian Dollar</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
         <is>
           <t>LRD</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>50d38c7a-138c-43c8-96e5-5767a49ee3e3</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>434</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="D133" t="n">
         <v>132</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>Libyan Dinar</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
         <is>
           <t>LYD</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>4d6ddeb6-8acc-4f7e-8c4f-4453336b9ecd</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
           <t>440</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="D134" t="n">
         <v>133</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>Lithuanian Litas</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
         <is>
           <t>LTL</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>8bc2ff34-776c-45d7-b26e-6378a0c51f40</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>442</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="D135" t="n">
         <v>134</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>Luxembourg Franc</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
         <is>
           <t>LUF</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
+          <t>7793788e-2f0e-4901-a4f6-95efb4825b2c</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
           <t>446</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="D136" t="n">
         <v>135</v>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>Macau Pataca</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
         <is>
           <t>MOP</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>f900ad78-f350-4638-9797-e24b4ad5607d</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
           <t>450</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="D137" t="n">
         <v>136</v>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>Malagasy Franc</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
         <is>
           <t>MGF</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
+          <t>6821bce8-a03d-4b7c-926f-e676be0a1f4a</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>454</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="D138" t="n">
         <v>137</v>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>Malawi Kwacha</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
         <is>
           <t>MWK</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>82ceb420-06cb-4536-b9dd-561d6c69f42e</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
           <t>458</t>
         </is>
       </c>
-      <c r="B139" t="n">
+      <c r="D139" t="n">
         <v>138</v>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>Malaysian RinggitS</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
         <is>
           <t>MYR</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>584843f5-41c9-4fce-b1e2-7e0025737c6b</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
           <t>462</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="D140" t="n">
         <v>139</v>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>Maldives Rufiyaa</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
         <is>
           <t>MVR</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>18c7ca7e-abb3-40c1-9c53-326faf85ef99</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>470</t>
         </is>
       </c>
-      <c r="B141" t="n">
+      <c r="D141" t="n">
         <v>140</v>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>Maltese Lira</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
         <is>
           <t>MTL</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>1bdebc60-0305-426d-b53e-356fd801193b</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
           <t>478</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="D142" t="n">
         <v>141</v>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>Mauritania Ouguiya</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
         <is>
           <t>MRO</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>89b13fcd-e3ed-4736-ae88-9e5b7a57a2b9</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>480</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="D143" t="n">
         <v>142</v>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>Mauritius Rupee</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
         <is>
           <t>MUR</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
+          <t>5758d098-337b-4e30-a3a0-75df1e3374bd</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
           <t>484</t>
         </is>
       </c>
-      <c r="B144" t="n">
+      <c r="D144" t="n">
         <v>143</v>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>Mexican Peso</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
         <is>
           <t>MXN</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>63030e72-a9be-4376-ba0d-6c04c6aa26ab</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
           <t>496</t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="D145" t="n">
         <v>144</v>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>Tugrik</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
         <is>
           <t>MNT</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>5b5b5f0a-7869-436e-8c4c-4be19b7322e7</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>498</t>
         </is>
       </c>
-      <c r="B146" t="n">
+      <c r="D146" t="n">
         <v>145</v>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>Moldovan Leu</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
         <is>
           <t>MDL</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>040b6eac-f93d-4592-b07a-e7178cd1b9ac</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t>504</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="D147" t="n">
         <v>146</v>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>Moroccan Dirham</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
         <is>
           <t>MAD</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>d4ea5268-a121-41d7-8dca-563e192802ed</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>508</t>
         </is>
       </c>
-      <c r="B148" t="n">
+      <c r="D148" t="n">
         <v>147</v>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>Mozambique Metical</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
         <is>
           <t>MZM</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>8276d277-f5ea-4283-8709-fdc16fe23290</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
           <t>512</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="D149" t="n">
         <v>148</v>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>Rial Omani</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
         <is>
           <t>OMR</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>8d528d5c-c457-48bc-8b8e-31aab2e60bf7</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
           <t>516</t>
         </is>
       </c>
-      <c r="B150" t="n">
+      <c r="D150" t="n">
         <v>149</v>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>Namibia Dollar</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
         <is>
           <t>NAD</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>8f8a8ad8-9ac0-4c72-9e9a-3aa54362f42d</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
           <t>524</t>
         </is>
       </c>
-      <c r="B151" t="n">
+      <c r="D151" t="n">
         <v>150</v>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>Nepalese Rupee</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
         <is>
           <t>NPR</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>3f4df7d1-8074-45d7-a9ed-b558b81a153b</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
           <t>528</t>
         </is>
       </c>
-      <c r="B152" t="n">
+      <c r="D152" t="n">
         <v>151</v>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>Netherlands GuilderS</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
         <is>
           <t>NLG</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
+          <t>1898f4e6-403d-4440-9b1e-cea65356684c</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
           <t>532</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="D153" t="n">
         <v>152</v>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>Nether. Antillian Guilder</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
         <is>
           <t>ANG</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>04e9c77a-57ad-4cbc-9956-2966065abbe0</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
           <t>533</t>
         </is>
       </c>
-      <c r="B154" t="n">
+      <c r="D154" t="n">
         <v>153</v>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>Aruban Guilder</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
         <is>
           <t>AWG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
+          <t>0838055c-8100-4e07-ade6-530cda6e8638</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
           <t>548</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="D155" t="n">
         <v>154</v>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>Vanuatu Vatu</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
         <is>
           <t>VUV</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t>c2ef6a6f-012f-44cc-be94-ad523ff541dc</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
           <t>554</t>
         </is>
       </c>
-      <c r="B156" t="n">
+      <c r="D156" t="n">
         <v>155</v>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>New Zealand DollarS</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
         <is>
           <t>NZD</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>1aa4914f-782f-439c-bc3f-bcfd55fb544e</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
           <t>558</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="D157" t="n">
         <v>156</v>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>Cordoba Oro</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
         <is>
           <t>NIO</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>8fbe576c-648c-40fc-8966-fd1790187ef8</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
           <t>566</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="D158" t="n">
         <v>157</v>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>Nigeria Naira</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
         <is>
           <t>NGN</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
+          <t>e1364354-4e74-46a5-9d81-156aaf944421</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
           <t>578</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="D159" t="n">
         <v>158</v>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>Norwegian KroneS</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
         <is>
           <t>NOK</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
+          <t>aa48a044-929a-492a-a9f1-25f87dfe9b38</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
           <t>586</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="D160" t="n">
         <v>159</v>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>Pakistan Rupee</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
         <is>
           <t>PKR</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>d8fd3321-7255-46c4-b81c-7e1b0032499f</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
           <t>590</t>
         </is>
       </c>
-      <c r="B161" t="n">
+      <c r="D161" t="n">
         <v>160</v>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>Panama Balboa</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
         <is>
           <t>PAB</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t>106bc875-6c04-4619-b3e5-2cd0eb376587</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
           <t>598</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="D162" t="n">
         <v>161</v>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>Guinea Kina</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
         <is>
           <t>PGK</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
+          <t>8394c03a-4c2d-4f7b-863f-82ecb96ee2f0</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
           <t>600</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="D163" t="n">
         <v>162</v>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>Paraguay Guarani</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
         <is>
           <t>PYG</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
+          <t>cf555617-4092-4840-ae5e-943c73f16299</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
           <t>604</t>
         </is>
       </c>
-      <c r="B164" t="n">
+      <c r="D164" t="n">
         <v>163</v>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>Peru Nuevo Sol</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K164" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>5dc77098-ee14-47d5-b00f-55ed89169dd6</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
           <t>608</t>
         </is>
       </c>
-      <c r="B165" t="n">
+      <c r="D165" t="n">
         <v>164</v>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>Philippine Peso</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
         <is>
           <t>PHP</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K165" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>b9638308-972c-4eda-8341-8c95179b9ab9</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="D166" t="n">
         <v>165</v>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>Portuguese EscudoS</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
         <is>
           <t>PTE</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K166" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>5cc7c8b0-1b79-4b13-999a-c0f0b37a29f1</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
           <t>624</t>
         </is>
       </c>
-      <c r="B167" t="n">
+      <c r="D167" t="n">
         <v>166</v>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>Guinea-Bissau Peso</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
         <is>
           <t>GWP</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K167" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t>bc47e7af-0975-43ab-8a69-80945755b2a8</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
           <t>626</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="D168" t="n">
         <v>167</v>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>Timor Escudo</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
         <is>
           <t>TPE</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
+          <t>f74603d7-ca1a-4ce2-9816-34ac0e3156d3</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
           <t>634</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="D169" t="n">
         <v>168</v>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>Qatari Rial</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
         <is>
           <t>QAR</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
+          <t>b78751b8-774c-4a47-803a-9c320ebd518f</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
           <t>642</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="D170" t="n">
         <v>169</v>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>Romania Leu</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
         <is>
           <t>ROL</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>3edec606-669a-44a6-8229-1f58d78969ce</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
           <t>643</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="D171" t="n">
         <v>170</v>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>Russian Ruble</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>14045561-3bee-4e52-a275-49ddc3d64cba</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
           <t>646</t>
         </is>
       </c>
-      <c r="B172" t="n">
+      <c r="D172" t="n">
         <v>171</v>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>Rwanda Franc</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
         <is>
           <t>RWF</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>f7957ae3-22dc-439c-b10e-971344673d8e</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
           <t>654</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="D173" t="n">
         <v>172</v>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>St. Helena Pound</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
         <is>
           <t>SHP</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>0948d19d-13b7-4789-9800-fbc9b3f24e2e</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
           <t>678</t>
         </is>
       </c>
-      <c r="B174" t="n">
+      <c r="D174" t="n">
         <v>173</v>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>Sao Tome and Principe Dobra</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
         <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>3ffe32d2-899e-4aac-b2ca-a2c9c7de4fa3</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
           <t>682</t>
         </is>
       </c>
-      <c r="B175" t="n">
+      <c r="D175" t="n">
         <v>174</v>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>Saudi Riyal</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
+          <t>fd3c357a-f6dc-4b3f-8164-554aeb6c2f2c</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
           <t>690</t>
         </is>
       </c>
-      <c r="B176" t="n">
+      <c r="D176" t="n">
         <v>175</v>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>Seychelles Rupee</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
         <is>
           <t>SCR</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>0054d3be-8ac4-4286-af35-894bd009701b</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
           <t>694</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="D177" t="n">
         <v>176</v>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>Sierra Leone Leone</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
         <is>
           <t>SLL</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
+          <t>231cec22-2ad1-43f5-948a-fe3d30895638</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
           <t>702</t>
         </is>
       </c>
-      <c r="B178" t="n">
+      <c r="D178" t="n">
         <v>177</v>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>Singapore DollarS</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
         <is>
           <t>SGD</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
+          <t>4c982159-74c3-43be-b98f-7bd8b7ace0f7</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
           <t>703</t>
         </is>
       </c>
-      <c r="B179" t="n">
+      <c r="D179" t="n">
         <v>178</v>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>Slovak Koruna</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
         <is>
           <t>SKK</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
+          <t>e086ddeb-f925-4204-a328-588367d59efc</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
           <t>410</t>
         </is>
       </c>
-      <c r="B180" t="n">
+      <c r="D180" t="n">
         <v>179</v>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>Republic of Korea,Won</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
         <is>
           <t>KRW</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t>87dcc8a7-2943-4824-af8a-b384d39af276</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
           <t>076</t>
         </is>
       </c>
-      <c r="B181" t="n">
+      <c r="D181" t="n">
         <v>180</v>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>68aefc07-d0e6-4628-9ebe-274ebc56f476</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="B182" t="n">
+      <c r="D182" t="n">
         <v>181</v>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
+          <t>8dacc8eb-1ce3-4f7e-a5eb-5b167346b9bd</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
           <t>112</t>
         </is>
       </c>
-      <c r="B183" t="n">
+      <c r="D183" t="n">
         <v>182</v>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
-      <c r="G183" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>72ed0f8f-d9a0-4618-b15d-c2c1d21b4368</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
           <t>180</t>
         </is>
       </c>
-      <c r="B184" t="n">
+      <c r="D184" t="n">
         <v>183</v>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>9cc8bf3f-2805-4b32-bf69-48467cd7ae0a</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
           <t>218</t>
         </is>
       </c>
-      <c r="B185" t="n">
+      <c r="D185" t="n">
         <v>184</v>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>92ed4114-200d-47a9-8560-5655a897ee2f</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
           <t>226</t>
         </is>
       </c>
-      <c r="B186" t="n">
+      <c r="D186" t="n">
         <v>185</v>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t>f8b4b607-b779-41a0-80dc-0b7980fe5951</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
           <t>268</t>
         </is>
       </c>
-      <c r="B187" t="n">
+      <c r="D187" t="n">
         <v>186</v>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>39167a90-24a0-46eb-b46e-70daf5989d96</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
           <t>804</t>
         </is>
       </c>
-      <c r="B188" t="n">
+      <c r="D188" t="n">
         <v>187</v>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>109d768c-936e-4255-b016-8e9ff1d2c144</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
           <t>890</t>
         </is>
       </c>
-      <c r="B189" t="n">
+      <c r="D189" t="n">
         <v>188</v>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>b98cd7bf-946b-4cd8-a069-e8eb39aadfa7</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
           <t>972</t>
         </is>
       </c>
-      <c r="B190" t="n">
+      <c r="D190" t="n">
         <v>189</v>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>9a3f15a4-5131-4ffd-b214-d95de8cfa45b</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
           <t>973</t>
         </is>
       </c>
-      <c r="B191" t="n">
+      <c r="D191" t="n">
         <v>190</v>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>XXXXXXXXXXXX</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K191" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
+          <t>668d133c-f01d-4f68-951c-00f4e53b2a3e</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
           <t>949</t>
         </is>
       </c>
-      <c r="B192" t="n">
+      <c r="D192" t="n">
         <v>191</v>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>new lira</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
         <is>
           <t>YTL</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K192" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
+          <t>1b2dcdaf-18a5-4326-93fc-47cbf80c61d8</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
           <t>944</t>
         </is>
       </c>
-      <c r="B193" t="n">
+      <c r="D193" t="n">
         <v>401</v>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>currency 944</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
         <is>
           <t>XCV</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
+          <t>b2d725af-9656-4373-b76b-7f509ef10fb5</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="B194" t="n">
+      <c r="D194" t="n">
         <v>821</v>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>TEST</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
         <is>
           <t>TES</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
+          <t>85910486-f6b5-4d4c-a48c-034b9f409852</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
           <t>934</t>
         </is>
       </c>
-      <c r="B195" t="n">
+      <c r="D195" t="n">
         <v>934</v>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>Turkmenistan Manat</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
         <is>
           <t>TMT</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
+          <t>f16e578c-a6d4-4a97-9a1c-14a9f60808c3</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
           <t>946</t>
         </is>
       </c>
-      <c r="B196" t="n">
+      <c r="D196" t="n">
         <v>946</v>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>LEI ROMANIAN</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
         <is>
           <t>LEI</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
+          <t>aff673c1-ff11-452f-96b7-37911a283007</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
           <t>ttt</t>
         </is>
       </c>
-      <c r="B197" t="n">
+      <c r="D197" t="n">
         <v>1201</v>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>ttt</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>ttt</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
+          <t>a6bc420c-3034-4976-a4ae-651788f52072</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
           <t>tt1</t>
         </is>
       </c>
-      <c r="B198" t="n">
+      <c r="D198" t="n">
         <v>2001</v>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>test slo</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>tt1</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>tt1</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" s="2" t="n">
-        <v>45511.29478130787</v>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CURRENCY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="n">
+        <v>45511.29478130346</v>
       </c>
     </row>
   </sheetData>
